--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Auto_TC7</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-22</t>
@@ -325,20 +325,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,7 +366,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,7 +384,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14.44"/>
@@ -401,17 +405,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="38" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="10.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="8.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="53" min="49" style="1" width="2.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="55" style="1" width="2.67"/>
   </cols>
@@ -420,7 +424,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -593,7 +597,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K2" s="2"/>
@@ -668,7 +672,7 @@
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="AS2" s="2" t="s">

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050826C7-5F85-4B11-9F96-52B5316C91C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC20E54-C281-49ED-B663-BA9DE1208ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC20E54-C281-49ED-B663-BA9DE1208ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEB068-3507-4E11-95F8-2F0A45097C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEB068-3507-4E11-95F8-2F0A45097C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED44A3-0CD0-4B89-8A55-2B6C86A66C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>totalParty</t>
   </si>
@@ -609,8 +609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,9 +916,7 @@
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
-      <c r="AR2" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
         <v>55</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ED44A3-0CD0-4B89-8A55-2B6C86A66C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B729C93-0891-4C5A-A941-4B2C3B7FC272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B729C93-0891-4C5A-A941-4B2C3B7FC272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986E3A5-BFC4-47F5-88F2-9462B81345CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -610,61 +610,60 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="14" width="10.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="10.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="22" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="4.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="13.44140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.77734375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="1" customWidth="1"/>
+    <col min="36" max="37" width="8.7109375" style="1" customWidth="1"/>
     <col min="38" max="39" width="9" style="1" customWidth="1"/>
-    <col min="40" max="40" width="10.109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" style="1" customWidth="1"/>
     <col min="41" max="41" width="10" style="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="14.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="17.21875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="18.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.21875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="8.77734375" style="1" customWidth="1"/>
-    <col min="49" max="53" width="2.6640625" style="1"/>
-    <col min="55" max="16384" width="2.6640625" style="1"/>
+    <col min="42" max="42" width="12.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="17.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.7109375" style="1" customWidth="1"/>
+    <col min="49" max="53" width="2.7109375" style="1"/>
+    <col min="55" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +814,7 @@
       <c r="AZ1" s="2"/>
       <c r="BA1" s="2"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7986E3A5-BFC4-47F5-88F2-9462B81345CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE9D4A-C9F6-43E3-9764-8CFD5B0EC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BE9D4A-C9F6-43E3-9764-8CFD5B0EC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473C67D-29BE-4589-AAC9-0F0058F3E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -310,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -350,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -456,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25074A64-9605-4D64-AFE8-86E58D137BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F8F4D-0A4C-4800-9875-95711CE7C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -310,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -350,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -456,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F8F4D-0A4C-4800-9875-95711CE7C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE160EC-C15D-49AB-BFA0-8D58F09C990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 7/Auto_GeStamp_TSCD_TC7_C1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Calculate Duty\TypeCode 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE160EC-C15D-49AB-BFA0-8D58F09C990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A283BC-1745-4195-8518-9334EEE30D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -243,7 +243,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
